--- a/1. Quotation/36. Hi-Tech Trading & Petroleum Technical Service Company/UNS 31803/Báo Giá_CTY SUPER Materials_131119.xlsx
+++ b/1. Quotation/36. Hi-Tech Trading & Petroleum Technical Service Company/UNS 31803/Báo Giá_CTY SUPER Materials_131119.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31CA11B-2B55-49C3-B628-F24EE4272DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>BÁO GIÁ</t>
   </si>
@@ -129,30 +128,6 @@
   <si>
     <t>CÔNG TY TNHH MỘT THÀNH VIÊN 
 SUPER MATERIALS</t>
-  </si>
-  <si>
-    <r>
-      <t>- Certificate of Origin - CO (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bản sao</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
-    </r>
   </si>
   <si>
     <t>Vật liệu</t>
@@ -222,15 +197,6 @@
     <t>- Thanh toán trước 100%;</t>
   </si>
   <si>
-    <t>- Thời gian giao hàng: 45-50 ngày làm việc kể từ ngày nhận được thanh toán;</t>
-  </si>
-  <si>
-    <t>Duplex</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t xml:space="preserve">ASTM A790 </t>
   </si>
   <si>
@@ -253,12 +219,21 @@
   </si>
   <si>
     <t>Hồ Chí Minh, ngày 13 tháng 11 năm 2019</t>
+  </si>
+  <si>
+    <t>- Thời gian giao hàng: 20-25 ngày làm việc kể từ ngày nhận được thanh toán;</t>
+  </si>
+  <si>
+    <t>Ống đúc Duplex</t>
+  </si>
+  <si>
+    <t>EU/G7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,6 +422,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -464,42 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +513,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="D:\3. Super Materials Company Limited\1. Marketing\Logo\Logo PNG.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -652,23 +627,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -704,23 +662,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -896,20 +837,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
@@ -922,189 +863,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="A8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="A9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="A11" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
@@ -1116,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>4</v>
@@ -1128,47 +1069,47 @@
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>1</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="C16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="22">
+        <v>6</v>
+      </c>
+      <c r="H16" s="18">
         <v>1</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="34">
-        <v>6</v>
-      </c>
-      <c r="H16" s="30">
-        <v>1</v>
-      </c>
-      <c r="I16" s="32">
+      <c r="I16" s="20">
         <v>2820</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="21">
         <f>I16*H16</f>
         <v>2820</v>
       </c>
@@ -1281,7 +1222,7 @@
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1295,7 +1236,7 @@
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1323,7 +1264,7 @@
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1363,10 +1304,10 @@
       <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="A30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="14"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -1377,10 +1318,10 @@
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="14"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -1390,11 +1331,9 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="B32" s="14"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -1404,53 +1343,53 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
@@ -1462,42 +1401,30 @@
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D36:J37"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:J21"/>
-    <mergeCell ref="A34:J34"/>
     <mergeCell ref="A1:J6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A11:J14"/>
+    <mergeCell ref="D35:J36"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:J21"/>
+    <mergeCell ref="A33:J33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" fitToHeight="0" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="78" fitToHeight="0" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>